--- a/NXT21_ALX2_ERP3_G1_ proj_1.xlsx
+++ b/NXT21_ALX2_ERP3_G1_ proj_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Group Name:</t>
   </si>
@@ -60,13 +60,16 @@
   </si>
   <si>
     <t>Github link</t>
+  </si>
+  <si>
+    <t>Metwally-Ibrahim/NXT21__ALX2_ERP_G1_Proj_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +94,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,79 +123,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -197,40 +135,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,66 +485,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -623,17 +556,27 @@
       <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" display="https://github.com/Metwally-Ibrahim/NXT21__ALX2_ERP_G1_Proj_1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>